--- a/spliced/falling/2023-03-25_18-03-28/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.0012217304902151</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0019853119738399</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0036651915870606</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0067195175215601</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-28/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0447458773851394</v>
+        <v>-0.0337503030896186</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1001818999648094</v>
+        <v>0.09865473955869671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0022907445672899</v>
+        <v>-0.0665843114256858</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0861319974064827</v>
+        <v>-0.0201585534960031</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4196644127368927</v>
+        <v>-0.0109955742955207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0219911485910415</v>
+        <v>-0.0201585534960031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1461495161056518</v>
+        <v>0.0261144898831844</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6041457056999207</v>
+        <v>-0.0386372283101081</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3318525552749634</v>
+        <v>0.0106901414692401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2295326143503189</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7486153841018677</v>
+        <v>-0.0545197241008281</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0561996027827262</v>
+        <v>0.0339030213654041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7399105429649353</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0711658000946044</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.335504174232483</v>
+        <v>-0.0103847095742821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.26658821105957</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="B7" t="n">
-        <v>2.570826292037964</v>
+        <v>-0.0116064399480819</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.828750610351562</v>
+        <v>-0.0108428578823804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.669966459274292</v>
+        <v>0.0427605658769607</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3785837292671203</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.870913982391357</v>
+        <v>-0.0694859251379966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.501964926719666</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1320996135473251</v>
+        <v>-0.0441350154578685</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.118036150932312</v>
+        <v>0.0128281703218817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0447458773851394</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1238529309630394</v>
+        <v>-0.1001818999648094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8869763612747192</v>
+        <v>0.0022907445672899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0334448739886283</v>
+        <v>0.0861319974064827</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0073303831741213</v>
+        <v>-0.4196644127368927</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1014036312699318</v>
+        <v>0.0219911485910415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.4305072724819183</v>
+        <v>0.1461495161056518</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0621555373072624</v>
+        <v>-0.6041457056999207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0183259565383195</v>
+        <v>0.3318525552749634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.069319605827332</v>
+        <v>0.2295326143503189</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0797179117798805</v>
+        <v>-0.7486153841018677</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1148426681756973</v>
+        <v>0.0561996027827262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2054034322500229</v>
+        <v>0.7399105429649353</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0172569435089826</v>
+        <v>0.0711658000946044</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1675297915935516</v>
+        <v>-1.335504174232483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0361937656998634</v>
+        <v>4.26658821105957</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0485637858510017</v>
+        <v>2.570826292037964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1411098688840866</v>
+        <v>-3.828750610351562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1175915598869323</v>
+        <v>0.669966459274292</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0036651915870606</v>
+        <v>-0.3785837292671203</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0314595587551593</v>
+        <v>-2.870913982391357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.090866208076477</v>
+        <v>-1.501964926719666</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0201585534960031</v>
+        <v>0.1320996135473251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0360410511493682</v>
+        <v>-1.118036150932312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.007177666760981</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.072540245950222</v>
+        <v>0.1238529309630394</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0835358202457428</v>
+        <v>0.8869763612747192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.0334448739886283</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0126754539087414</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0610865242779254</v>
+        <v>-0.1014036312699318</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0061086523346602</v>
+        <v>-0.4305072724819183</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0195476878434419</v>
+        <v>-0.0621555373072624</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.0183259565383195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.069319605827332</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0797179117798805</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.1148426681756973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.2054034322500229</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0172569435089826</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1675297915935516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.0361937656998634</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0485637858510017</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1411098688840866</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1175915598869323</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0036651915870606</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0314595587551593</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.090866208076477</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0201585534960031</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.007177666760981</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.072540245950222</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.0835358202457428</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0126754539087414</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0610865242779254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0061086523346602</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.0195476878434419</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.0032070425804704</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>0.0010690141934901</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>-0.0012217304902151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0019853119738399</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0036651915870606</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0003054326225537</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0142026171088218</v>
       </c>
     </row>
   </sheetData>
